--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmillsop\source\w266_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D23CA32F-B28C-43A6-87B7-532D6FF517C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDADB29-5DA0-4D2E-8C7D-1161F1F54C11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="12300" xr2:uid="{B938BA98-6912-46C6-B260-9E244E016555}"/>
   </bookViews>
